--- a/DiTWP_2UE_Daten.xlsx
+++ b/DiTWP_2UE_Daten.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ARI\41_FH_Wien\DiTWP\_W24\1_UE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7856FE64-2274-4B06-BE51-71511559A1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E789729-777E-4E90-A6A0-CC029FA4144E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Querschnitt" sheetId="2" r:id="rId1"/>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,6 +25,551 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="180">
+  <si>
+    <t>elements.0.GlobalId</t>
+  </si>
+  <si>
+    <t>elements.0.Name</t>
+  </si>
+  <si>
+    <t>elements.0.ObjectPlacement</t>
+  </si>
+  <si>
+    <t>elements.0.expressID</t>
+  </si>
+  <si>
+    <t>elements.0.speckle_type</t>
+  </si>
+  <si>
+    <t>elements.0.type</t>
+  </si>
+  <si>
+    <t>elements.0.elements.0.GlobalId</t>
+  </si>
+  <si>
+    <t>elements.0.elements.0.Name</t>
+  </si>
+  <si>
+    <t>elements.0.elements.0.ObjectPlacement</t>
+  </si>
+  <si>
+    <t>elements.0.elements.0.expressID</t>
+  </si>
+  <si>
+    <t>elements.0.elements.0.speckle_type</t>
+  </si>
+  <si>
+    <t>elements.0.elements.0.type</t>
+  </si>
+  <si>
+    <t>elements.0.elements.0.elements.0.GlobalId</t>
+  </si>
+  <si>
+    <t>elements.0.elements.0.elements.0.Name</t>
+  </si>
+  <si>
+    <t>elements.0.elements.0.elements.0.ObjectPlacement</t>
+  </si>
+  <si>
+    <t>elements.0.elements.0.elements.0.PredefinedType</t>
+  </si>
+  <si>
+    <t>elements.0.elements.0.elements.0.Representation</t>
+  </si>
+  <si>
+    <t>elements.0.elements.0.elements.0.expressID</t>
+  </si>
+  <si>
+    <t>elements.0.elements.0.elements.0.speckle_type</t>
+  </si>
+  <si>
+    <t>elements.0.elements.0.elements.0.type</t>
+  </si>
+  <si>
+    <t>elements.0.elements.0.elements.1.GlobalId</t>
+  </si>
+  <si>
+    <t>elements.0.elements.0.elements.1.Name</t>
+  </si>
+  <si>
+    <t>elements.0.elements.0.elements.1.ObjectPlacement</t>
+  </si>
+  <si>
+    <t>elements.0.elements.0.elements.1.PredefinedType</t>
+  </si>
+  <si>
+    <t>elements.0.elements.0.elements.1.Representation</t>
+  </si>
+  <si>
+    <t>elements.0.elements.0.elements.1.expressID</t>
+  </si>
+  <si>
+    <t>elements.0.elements.0.elements.1.speckle_type</t>
+  </si>
+  <si>
+    <t>elements.0.elements.0.elements.1.type</t>
+  </si>
+  <si>
+    <t>3zigZxtszBXxgc5QAVShEn</t>
+  </si>
+  <si>
+    <t>My Building</t>
+  </si>
+  <si>
+    <t>IFCBUILDING</t>
+  </si>
+  <si>
+    <t>0T0J56iWfDIh6n906F29fV</t>
+  </si>
+  <si>
+    <t>My Storey</t>
+  </si>
+  <si>
+    <t>IFCBUILDINGSTOREY</t>
+  </si>
+  <si>
+    <t>0LZBobCaj0S9Ow$l0SSmpP</t>
+  </si>
+  <si>
+    <t>Brep -- ca4750257bd0285b28e06ed78512f5fe</t>
+  </si>
+  <si>
+    <t>BASESLAB</t>
+  </si>
+  <si>
+    <t>IFCSLAB</t>
+  </si>
+  <si>
+    <t>1lb5AtnCXBBvkkpR1SRbB4</t>
+  </si>
+  <si>
+    <t>Brep -- f5eddf9a4fd33af4304439232b2d742e</t>
+  </si>
+  <si>
+    <t>ELEMENTEDWALL</t>
+  </si>
+  <si>
+    <t>IFCWALL</t>
+  </si>
+  <si>
+    <t>@{0}.0.speckle_type</t>
+  </si>
+  <si>
+    <t>@{0}.0.units</t>
+  </si>
+  <si>
+    <t>@{0}.0.x</t>
+  </si>
+  <si>
+    <t>@{0}.0.y</t>
+  </si>
+  <si>
+    <t>@{0}.0.z</t>
+  </si>
+  <si>
+    <t>@{0}.1.speckle_type</t>
+  </si>
+  <si>
+    <t>@{0}.1.units</t>
+  </si>
+  <si>
+    <t>@{0}.1.x</t>
+  </si>
+  <si>
+    <t>@{0}.1.y</t>
+  </si>
+  <si>
+    <t>@{0}.1.z</t>
+  </si>
+  <si>
+    <t>@{0}.2.speckle_type</t>
+  </si>
+  <si>
+    <t>@{0}.2.units</t>
+  </si>
+  <si>
+    <t>@{0}.2.x</t>
+  </si>
+  <si>
+    <t>@{0}.2.y</t>
+  </si>
+  <si>
+    <t>@{0}.2.z</t>
+  </si>
+  <si>
+    <t>@{0}.3.speckle_type</t>
+  </si>
+  <si>
+    <t>@{0}.3.units</t>
+  </si>
+  <si>
+    <t>@{0}.3.x</t>
+  </si>
+  <si>
+    <t>@{0}.3.y</t>
+  </si>
+  <si>
+    <t>@{0}.3.z</t>
+  </si>
+  <si>
+    <t>@{0}.4.speckle_type</t>
+  </si>
+  <si>
+    <t>@{0}.4.units</t>
+  </si>
+  <si>
+    <t>@{0}.4.x</t>
+  </si>
+  <si>
+    <t>@{0}.4.y</t>
+  </si>
+  <si>
+    <t>@{0}.4.z</t>
+  </si>
+  <si>
+    <t>@{0}.5.area</t>
+  </si>
+  <si>
+    <t>@{0}.5.bbox.area</t>
+  </si>
+  <si>
+    <t>@{0}.5.bbox.basePlane.normal.speckle_type</t>
+  </si>
+  <si>
+    <t>@{0}.5.bbox.basePlane.normal.units</t>
+  </si>
+  <si>
+    <t>@{0}.5.bbox.basePlane.normal.x</t>
+  </si>
+  <si>
+    <t>@{0}.5.bbox.basePlane.normal.y</t>
+  </si>
+  <si>
+    <t>@{0}.5.bbox.basePlane.normal.z</t>
+  </si>
+  <si>
+    <t>@{0}.5.bbox.basePlane.origin.speckle_type</t>
+  </si>
+  <si>
+    <t>@{0}.5.bbox.basePlane.origin.units</t>
+  </si>
+  <si>
+    <t>@{0}.5.bbox.basePlane.origin.x</t>
+  </si>
+  <si>
+    <t>@{0}.5.bbox.basePlane.origin.y</t>
+  </si>
+  <si>
+    <t>@{0}.5.bbox.basePlane.origin.z</t>
+  </si>
+  <si>
+    <t>@{0}.5.bbox.basePlane.speckle_type</t>
+  </si>
+  <si>
+    <t>@{0}.5.bbox.basePlane.units</t>
+  </si>
+  <si>
+    <t>@{0}.5.bbox.basePlane.xdir.speckle_type</t>
+  </si>
+  <si>
+    <t>@{0}.5.bbox.basePlane.xdir.units</t>
+  </si>
+  <si>
+    <t>@{0}.5.bbox.basePlane.xdir.x</t>
+  </si>
+  <si>
+    <t>@{0}.5.bbox.basePlane.xdir.y</t>
+  </si>
+  <si>
+    <t>@{0}.5.bbox.basePlane.xdir.z</t>
+  </si>
+  <si>
+    <t>@{0}.5.bbox.basePlane.ydir.speckle_type</t>
+  </si>
+  <si>
+    <t>@{0}.5.bbox.basePlane.ydir.units</t>
+  </si>
+  <si>
+    <t>@{0}.5.bbox.basePlane.ydir.x</t>
+  </si>
+  <si>
+    <t>@{0}.5.bbox.basePlane.ydir.y</t>
+  </si>
+  <si>
+    <t>@{0}.5.bbox.basePlane.ydir.z</t>
+  </si>
+  <si>
+    <t>@{0}.5.bbox.speckle_type</t>
+  </si>
+  <si>
+    <t>@{0}.5.bbox.units</t>
+  </si>
+  <si>
+    <t>@{0}.5.bbox.volume</t>
+  </si>
+  <si>
+    <t>@{0}.5.bbox.xSize.end</t>
+  </si>
+  <si>
+    <t>@{0}.5.bbox.xSize.speckle_type</t>
+  </si>
+  <si>
+    <t>@{0}.5.bbox.xSize.start</t>
+  </si>
+  <si>
+    <t>@{0}.5.bbox.ySize.end</t>
+  </si>
+  <si>
+    <t>@{0}.5.bbox.ySize.speckle_type</t>
+  </si>
+  <si>
+    <t>@{0}.5.bbox.ySize.start</t>
+  </si>
+  <si>
+    <t>@{0}.5.bbox.zSize.end</t>
+  </si>
+  <si>
+    <t>@{0}.5.bbox.zSize.speckle_type</t>
+  </si>
+  <si>
+    <t>@{0}.5.bbox.zSize.start</t>
+  </si>
+  <si>
+    <t>@{0}.5.domain.end</t>
+  </si>
+  <si>
+    <t>@{0}.5.domain.speckle_type</t>
+  </si>
+  <si>
+    <t>@{0}.5.domain.start</t>
+  </si>
+  <si>
+    <t>@{0}.5.end.speckle_type</t>
+  </si>
+  <si>
+    <t>@{0}.5.end.units</t>
+  </si>
+  <si>
+    <t>@{0}.5.end.x</t>
+  </si>
+  <si>
+    <t>@{0}.5.end.y</t>
+  </si>
+  <si>
+    <t>@{0}.5.end.z</t>
+  </si>
+  <si>
+    <t>@{0}.5.length</t>
+  </si>
+  <si>
+    <t>@{0}.5.speckle_type</t>
+  </si>
+  <si>
+    <t>@{0}.5.start.speckle_type</t>
+  </si>
+  <si>
+    <t>@{0}.5.start.units</t>
+  </si>
+  <si>
+    <t>@{0}.5.start.x</t>
+  </si>
+  <si>
+    <t>@{0}.5.start.y</t>
+  </si>
+  <si>
+    <t>@{0}.5.start.z</t>
+  </si>
+  <si>
+    <t>@{0}.5.units</t>
+  </si>
+  <si>
+    <t>@{0}.6.area</t>
+  </si>
+  <si>
+    <t>@{0}.6.bbox.area</t>
+  </si>
+  <si>
+    <t>@{0}.6.bbox.basePlane.normal.speckle_type</t>
+  </si>
+  <si>
+    <t>@{0}.6.bbox.basePlane.normal.units</t>
+  </si>
+  <si>
+    <t>@{0}.6.bbox.basePlane.normal.x</t>
+  </si>
+  <si>
+    <t>@{0}.6.bbox.basePlane.normal.y</t>
+  </si>
+  <si>
+    <t>@{0}.6.bbox.basePlane.normal.z</t>
+  </si>
+  <si>
+    <t>@{0}.6.bbox.basePlane.origin.speckle_type</t>
+  </si>
+  <si>
+    <t>@{0}.6.bbox.basePlane.origin.units</t>
+  </si>
+  <si>
+    <t>@{0}.6.bbox.basePlane.origin.x</t>
+  </si>
+  <si>
+    <t>@{0}.6.bbox.basePlane.origin.y</t>
+  </si>
+  <si>
+    <t>@{0}.6.bbox.basePlane.origin.z</t>
+  </si>
+  <si>
+    <t>@{0}.6.bbox.basePlane.speckle_type</t>
+  </si>
+  <si>
+    <t>@{0}.6.bbox.basePlane.units</t>
+  </si>
+  <si>
+    <t>@{0}.6.bbox.basePlane.xdir.speckle_type</t>
+  </si>
+  <si>
+    <t>@{0}.6.bbox.basePlane.xdir.units</t>
+  </si>
+  <si>
+    <t>@{0}.6.bbox.basePlane.xdir.x</t>
+  </si>
+  <si>
+    <t>@{0}.6.bbox.basePlane.xdir.y</t>
+  </si>
+  <si>
+    <t>@{0}.6.bbox.basePlane.xdir.z</t>
+  </si>
+  <si>
+    <t>@{0}.6.bbox.basePlane.ydir.speckle_type</t>
+  </si>
+  <si>
+    <t>@{0}.6.bbox.basePlane.ydir.units</t>
+  </si>
+  <si>
+    <t>@{0}.6.bbox.basePlane.ydir.x</t>
+  </si>
+  <si>
+    <t>@{0}.6.bbox.basePlane.ydir.y</t>
+  </si>
+  <si>
+    <t>@{0}.6.bbox.basePlane.ydir.z</t>
+  </si>
+  <si>
+    <t>@{0}.6.bbox.speckle_type</t>
+  </si>
+  <si>
+    <t>@{0}.6.bbox.units</t>
+  </si>
+  <si>
+    <t>@{0}.6.bbox.volume</t>
+  </si>
+  <si>
+    <t>@{0}.6.bbox.xSize.end</t>
+  </si>
+  <si>
+    <t>@{0}.6.bbox.xSize.speckle_type</t>
+  </si>
+  <si>
+    <t>@{0}.6.bbox.xSize.start</t>
+  </si>
+  <si>
+    <t>@{0}.6.bbox.ySize.end</t>
+  </si>
+  <si>
+    <t>@{0}.6.bbox.ySize.speckle_type</t>
+  </si>
+  <si>
+    <t>@{0}.6.bbox.ySize.start</t>
+  </si>
+  <si>
+    <t>@{0}.6.bbox.zSize.end</t>
+  </si>
+  <si>
+    <t>@{0}.6.bbox.zSize.speckle_type</t>
+  </si>
+  <si>
+    <t>@{0}.6.bbox.zSize.start</t>
+  </si>
+  <si>
+    <t>@{0}.6.domain.end</t>
+  </si>
+  <si>
+    <t>@{0}.6.domain.speckle_type</t>
+  </si>
+  <si>
+    <t>@{0}.6.domain.start</t>
+  </si>
+  <si>
+    <t>@{0}.6.end.speckle_type</t>
+  </si>
+  <si>
+    <t>@{0}.6.end.units</t>
+  </si>
+  <si>
+    <t>@{0}.6.end.x</t>
+  </si>
+  <si>
+    <t>@{0}.6.end.y</t>
+  </si>
+  <si>
+    <t>@{0}.6.end.z</t>
+  </si>
+  <si>
+    <t>@{0}.6.length</t>
+  </si>
+  <si>
+    <t>@{0}.6.speckle_type</t>
+  </si>
+  <si>
+    <t>@{0}.6.start.speckle_type</t>
+  </si>
+  <si>
+    <t>@{0}.6.start.units</t>
+  </si>
+  <si>
+    <t>@{0}.6.start.x</t>
+  </si>
+  <si>
+    <t>@{0}.6.start.y</t>
+  </si>
+  <si>
+    <t>@{0}.6.start.z</t>
+  </si>
+  <si>
+    <t>@{0}.6.units</t>
+  </si>
+  <si>
+    <t>speckle_type</t>
+  </si>
+  <si>
+    <t>Objects.Geometry.Point</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Objects.Geometry.Vector</t>
+  </si>
+  <si>
+    <t>Objects.Geometry.Plane</t>
+  </si>
+  <si>
+    <t>Objects.Geometry.Box</t>
+  </si>
+  <si>
+    <t>Objects.Primitive.Interval</t>
+  </si>
+  <si>
+    <t>Objects.Geometry.Line</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,12 +883,32 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="700" row="4">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{28D6B17B-F622-4678-98D1-5C6FA1E07D65}">
+  <we:reference id="wa200002934" version="1.0.0.5" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200002934" version="1.0.0.5" store="WA200002934" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E0E2EE-5666-4E00-8AAD-2FFB54014AC2}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -354,7 +921,7 @@
         <v>0.2</v>
       </c>
       <c r="C1">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -363,6 +930,992 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD63E83-002C-4A4D-99D8-BD2B01FF86D0}">
+  <dimension ref="A1:AB2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2">
+        <v>59</v>
+      </c>
+      <c r="D2">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2">
+        <v>65</v>
+      </c>
+      <c r="J2">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2">
+        <v>109</v>
+      </c>
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2">
+        <v>84</v>
+      </c>
+      <c r="R2">
+        <v>66</v>
+      </c>
+      <c r="S2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2">
+        <v>114</v>
+      </c>
+      <c r="X2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2">
+        <v>103</v>
+      </c>
+      <c r="Z2">
+        <v>85</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D4F058-6CA0-4B51-A01B-B5C55DBAE0C9}">
+  <dimension ref="A1:DZ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:130" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V1" t="s">
+        <v>63</v>
+      </c>
+      <c r="W1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>109</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>119</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>120</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>121</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>123</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>124</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>125</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>126</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>127</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>128</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>130</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>131</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>132</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>133</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>134</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>135</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>137</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>139</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>140</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>141</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>142</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>143</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>144</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>145</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>146</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>148</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>149</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>150</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>151</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>152</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>153</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>154</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>155</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>156</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>157</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>158</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>161</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>162</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>163</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>164</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>165</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>166</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>167</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>168</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>169</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>170</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:130" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2">
+        <v>0.15</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <v>3.15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2">
+        <v>0.15</v>
+      </c>
+      <c r="I2">
+        <v>0.5</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L2" t="s">
+        <v>173</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.5</v>
+      </c>
+      <c r="O2">
+        <v>3.3</v>
+      </c>
+      <c r="P2" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>173</v>
+      </c>
+      <c r="R2">
+        <v>6</v>
+      </c>
+      <c r="S2">
+        <v>0.5</v>
+      </c>
+      <c r="T2">
+        <v>3.3</v>
+      </c>
+      <c r="U2" t="s">
+        <v>172</v>
+      </c>
+      <c r="V2" t="s">
+        <v>173</v>
+      </c>
+      <c r="W2">
+        <v>0.15</v>
+      </c>
+      <c r="X2">
+        <v>0.5</v>
+      </c>
+      <c r="Y2">
+        <v>3.3</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>1.9984014443252818E-15</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AP2">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>1</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>6</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>177</v>
+      </c>
+      <c r="BC2">
+        <v>-1.3877787807814455E-17</v>
+      </c>
+      <c r="BD2">
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>177</v>
+      </c>
+      <c r="BF2">
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="BG2">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>177</v>
+      </c>
+      <c r="BI2">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="BJ2">
+        <v>6</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>177</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>172</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>173</v>
+      </c>
+      <c r="BO2">
+        <v>6</v>
+      </c>
+      <c r="BP2">
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="BQ2">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="BR2">
+        <v>6</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>178</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>172</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>173</v>
+      </c>
+      <c r="BV2">
+        <v>-1.3877787807814455E-17</v>
+      </c>
+      <c r="BW2">
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="BX2">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>173</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>174</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>173</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>1</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>172</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>173</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>175</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>173</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>174</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>173</v>
+      </c>
+      <c r="CP2">
+        <v>1</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>174</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>173</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>1</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>176</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>173</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0.15</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>177</v>
+      </c>
+      <c r="DC2">
+        <v>0.15</v>
+      </c>
+      <c r="DD2">
+        <v>0.5</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>177</v>
+      </c>
+      <c r="DF2">
+        <v>0.5</v>
+      </c>
+      <c r="DG2">
+        <v>3.15</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>177</v>
+      </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
+      <c r="DJ2">
+        <v>3.15</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>177</v>
+      </c>
+      <c r="DL2">
+        <v>0</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>172</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>173</v>
+      </c>
+      <c r="DO2">
+        <v>0.15</v>
+      </c>
+      <c r="DP2">
+        <v>0.5</v>
+      </c>
+      <c r="DQ2">
+        <v>0</v>
+      </c>
+      <c r="DR2">
+        <v>3.15</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>178</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>172</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>173</v>
+      </c>
+      <c r="DV2">
+        <v>0.15</v>
+      </c>
+      <c r="DW2">
+        <v>0.5</v>
+      </c>
+      <c r="DX2">
+        <v>3.15</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>173</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -372,4 +1925,18 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<SpeckleData xmlns="https://speckle.systems">
+  <state>{"streams":{"streams":[{"isReceiver":false,"selection":null,"hasHeaders":false,"selectedBranchName":"main","selectedCommitId":null,"receiverSelection":null}]}}</state>
+</SpeckleData>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7D68E76-80D5-44F4-97BB-08D530F2408D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://speckle.systems"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>